--- a/개인/이종건_2019 Jan 인수인계 계획.xlsx
+++ b/개인/이종건_2019 Jan 인수인계 계획.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +56,6 @@
   </si>
   <si>
     <t>Jan
-1st wk.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan
 2nd wk.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,7 +86,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python, Tensorflow</t>
+    <t>Basic of deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming Tool (Python, Tensorflow, Anaconda)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDTD + Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,10 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +132,37 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,43 +189,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -227,15 +211,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -243,33 +218,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -277,29 +237,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -594,162 +566,167 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="8" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:7" ht="49.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="4"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="19" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
